--- a/data/GP/30034001/None/5_bc_param/Indata_GP_75_70_samples.xlsx
+++ b/data/GP/30034001/None/5_bc_param/Indata_GP_75_70_samples.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.709364773799714</v>
+        <v>4.278518116727513</v>
       </c>
       <c r="C2">
-        <v>1.049637171270791</v>
+        <v>1.158070919896512</v>
       </c>
       <c r="D2">
-        <v>2.328864887886541</v>
+        <v>2.810731660691765</v>
       </c>
       <c r="E2">
-        <v>0.04467240159787757</v>
+        <v>0.05020403498423822</v>
       </c>
       <c r="F2">
-        <v>0.8689373567007743</v>
+        <v>0.8651683882672699</v>
       </c>
       <c r="G2">
-        <v>1414775.327401622</v>
+        <v>2079184.26379955</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.011192934154445</v>
+        <v>2.96061046588094</v>
       </c>
       <c r="C3">
-        <v>1.204565197980741</v>
+        <v>1.134461091204714</v>
       </c>
       <c r="D3">
-        <v>1.306183984704507</v>
+        <v>2.224467401003523</v>
       </c>
       <c r="E3">
-        <v>0.04026107390843103</v>
+        <v>0.02927803130582376</v>
       </c>
       <c r="F3">
-        <v>1.284725656312231</v>
+        <v>1.293440953656056</v>
       </c>
       <c r="G3">
-        <v>1618706.593189516</v>
+        <v>1589611.080281401</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.776975865584621</v>
+        <v>3.416231883036227</v>
       </c>
       <c r="C4">
-        <v>1.183295178967191</v>
+        <v>1.012896608530713</v>
       </c>
       <c r="D4">
-        <v>1.038742221037688</v>
+        <v>1.656487488157619</v>
       </c>
       <c r="E4">
-        <v>0.05406624417691794</v>
+        <v>0.04250953842771794</v>
       </c>
       <c r="F4">
-        <v>1.329864122457462</v>
+        <v>1.128742405446611</v>
       </c>
       <c r="G4">
-        <v>1233382.568414393</v>
+        <v>1317118.213249284</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.336727099100858</v>
+        <v>2.696654646360253</v>
       </c>
       <c r="C5">
-        <v>1.173863200167801</v>
+        <v>1.212566654197027</v>
       </c>
       <c r="D5">
-        <v>1.976259628060514</v>
+        <v>1.464453510757373</v>
       </c>
       <c r="E5">
-        <v>0.02948294807216913</v>
+        <v>0.03687866562022203</v>
       </c>
       <c r="F5">
-        <v>0.8880098540929429</v>
+        <v>0.8541285773871019</v>
       </c>
       <c r="G5">
-        <v>1552913.403253035</v>
+        <v>1525644.406200279</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.431082427235884</v>
+        <v>3.205963665563176</v>
       </c>
       <c r="C6">
-        <v>1.007261197794724</v>
+        <v>1.051563340210504</v>
       </c>
       <c r="D6">
-        <v>1.205281528728985</v>
+        <v>2.936695072192221</v>
       </c>
       <c r="E6">
-        <v>0.05066490536343277</v>
+        <v>0.03802988132435499</v>
       </c>
       <c r="F6">
-        <v>1.043405978587823</v>
+        <v>1.410156353060924</v>
       </c>
       <c r="G6">
-        <v>936563.4128396708</v>
+        <v>1508808.124285221</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.14663928559567</v>
+        <v>4.572647919558202</v>
       </c>
       <c r="C7">
-        <v>0.9348070698972685</v>
+        <v>0.9325993228914204</v>
       </c>
       <c r="D7">
-        <v>2.632533125565387</v>
+        <v>1.865110651238172</v>
       </c>
       <c r="E7">
-        <v>0.05317817208034439</v>
+        <v>0.04948850678780938</v>
       </c>
       <c r="F7">
-        <v>0.9748519693706155</v>
+        <v>1.09854891344668</v>
       </c>
       <c r="G7">
-        <v>1528578.208560633</v>
+        <v>1461812.684440096</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.251326148632458</v>
+        <v>2.623925457643865</v>
       </c>
       <c r="C8">
-        <v>1.055195900638619</v>
+        <v>0.9410944314718309</v>
       </c>
       <c r="D8">
-        <v>1.668454562849397</v>
+        <v>2.043023074099844</v>
       </c>
       <c r="E8">
-        <v>0.05720783820103996</v>
+        <v>0.04720913805689861</v>
       </c>
       <c r="F8">
-        <v>1.166494595609812</v>
+        <v>1.111073823560897</v>
       </c>
       <c r="G8">
-        <v>1137619.684670794</v>
+        <v>1065784.600766373</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.753034853750815</v>
+        <v>4.325791717483641</v>
       </c>
       <c r="C9">
-        <v>0.9814863664278484</v>
+        <v>1.169588506343336</v>
       </c>
       <c r="D9">
-        <v>2.480389194662661</v>
+        <v>2.751543558287492</v>
       </c>
       <c r="E9">
-        <v>0.05346109796309523</v>
+        <v>0.04502130395368023</v>
       </c>
       <c r="F9">
-        <v>1.308239811080411</v>
+        <v>0.9646327294139226</v>
       </c>
       <c r="G9">
-        <v>829947.3604045794</v>
+        <v>2100588.392549642</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.881957479636883</v>
+        <v>4.0714867382487</v>
       </c>
       <c r="C10">
-        <v>0.948853387220545</v>
+        <v>1.087336942672601</v>
       </c>
       <c r="D10">
-        <v>2.218572990287668</v>
+        <v>1.25363109510344</v>
       </c>
       <c r="E10">
-        <v>0.04355516258623515</v>
+        <v>0.0384139680844655</v>
       </c>
       <c r="F10">
-        <v>1.291254242412891</v>
+        <v>1.219322924621286</v>
       </c>
       <c r="G10">
-        <v>1129776.745975146</v>
+        <v>1521878.610821304</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.087763176839635</v>
+        <v>3.274705052744018</v>
       </c>
       <c r="C11">
-        <v>1.047469648635286</v>
+        <v>1.187676466703619</v>
       </c>
       <c r="D11">
-        <v>1.488305703570807</v>
+        <v>1.528710902132782</v>
       </c>
       <c r="E11">
-        <v>0.03982219423498159</v>
+        <v>0.04313903526452895</v>
       </c>
       <c r="F11">
-        <v>0.8425585991973045</v>
+        <v>1.101595898152995</v>
       </c>
       <c r="G11">
-        <v>1668165.589972571</v>
+        <v>1479503.176087148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.977334420028988</v>
+        <v>2.989956677947525</v>
       </c>
       <c r="C12">
-        <v>0.9891363328676672</v>
+        <v>1.04791025501971</v>
       </c>
       <c r="D12">
-        <v>2.999664626893707</v>
+        <v>2.486201788795851</v>
       </c>
       <c r="E12">
-        <v>0.05177230158202081</v>
+        <v>0.0465148626941581</v>
       </c>
       <c r="F12">
-        <v>1.073388328899276</v>
+        <v>0.9583919241886859</v>
       </c>
       <c r="G12">
-        <v>1354300.279043383</v>
+        <v>1454098.516019089</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.693507142888872</v>
+        <v>3.493643381603818</v>
       </c>
       <c r="C13">
-        <v>1.068962026483369</v>
+        <v>1.152141237591833</v>
       </c>
       <c r="D13">
-        <v>1.180769227264628</v>
+        <v>2.89157386739259</v>
       </c>
       <c r="E13">
-        <v>0.03485456515798516</v>
+        <v>0.03662373417496972</v>
       </c>
       <c r="F13">
-        <v>1.136507612929643</v>
+        <v>1.491629005891112</v>
       </c>
       <c r="G13">
-        <v>1734065.253337682</v>
+        <v>1715449.50664227</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.187989587291774</v>
+        <v>4.781564957254132</v>
       </c>
       <c r="C14">
-        <v>1.236306766330689</v>
+        <v>1.228296368086543</v>
       </c>
       <c r="D14">
-        <v>2.245628606649455</v>
+        <v>1.147835639180802</v>
       </c>
       <c r="E14">
-        <v>0.05481417016690797</v>
+        <v>0.03177663374491471</v>
       </c>
       <c r="F14">
-        <v>1.202122068300237</v>
+        <v>1.029366337452167</v>
       </c>
       <c r="G14">
-        <v>1161022.035999289</v>
+        <v>2105816.438637956</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.576096058641314</v>
+        <v>1.774392731694043</v>
       </c>
       <c r="C15">
-        <v>1.237546186225464</v>
+        <v>1.127141336254976</v>
       </c>
       <c r="D15">
-        <v>1.122947974794403</v>
+        <v>2.378768856286096</v>
       </c>
       <c r="E15">
-        <v>0.03255849689082019</v>
+        <v>0.05459401911094892</v>
       </c>
       <c r="F15">
-        <v>1.378435573218247</v>
+        <v>0.8324169744992562</v>
       </c>
       <c r="G15">
-        <v>1270704.384312232</v>
+        <v>1193178.343465534</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.459591091437041</v>
+        <v>4.130277034983799</v>
       </c>
       <c r="C16">
-        <v>1.022079473510825</v>
+        <v>1.154800219762494</v>
       </c>
       <c r="D16">
-        <v>1.908320295706789</v>
+        <v>2.447148632954271</v>
       </c>
       <c r="E16">
-        <v>0.03432567062614891</v>
+        <v>0.05383834444347764</v>
       </c>
       <c r="F16">
-        <v>1.017160708738262</v>
+        <v>0.8411043329763517</v>
       </c>
       <c r="G16">
-        <v>1795903.738347242</v>
+        <v>1922466.483535241</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.511828442736626</v>
+        <v>3.97828958588729</v>
       </c>
       <c r="C17">
-        <v>1.253348523567717</v>
+        <v>1.035908240968026</v>
       </c>
       <c r="D17">
-        <v>2.05233652650915</v>
+        <v>2.010240657869628</v>
       </c>
       <c r="E17">
-        <v>0.03935957636132791</v>
+        <v>0.03862340106256376</v>
       </c>
       <c r="F17">
-        <v>0.8176416027226215</v>
+        <v>1.254277144692968</v>
       </c>
       <c r="G17">
-        <v>1967786.569860166</v>
+        <v>1559948.455714258</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.465258274396132</v>
+        <v>3.732416031611014</v>
       </c>
       <c r="C18">
-        <v>1.247634764236484</v>
+        <v>1.017433966630024</v>
       </c>
       <c r="D18">
-        <v>1.092596092379239</v>
+        <v>2.952858236042252</v>
       </c>
       <c r="E18">
-        <v>0.04722089400918317</v>
+        <v>0.05626711325018004</v>
       </c>
       <c r="F18">
-        <v>1.001579452672068</v>
+        <v>1.163650593611544</v>
       </c>
       <c r="G18">
-        <v>1211569.711770809</v>
+        <v>1475872.856979256</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.659775843978579</v>
+        <v>4.093191310237119</v>
       </c>
       <c r="C19">
-        <v>1.027606795194146</v>
+        <v>1.097788127399828</v>
       </c>
       <c r="D19">
-        <v>2.732714345701221</v>
+        <v>1.497077378465555</v>
       </c>
       <c r="E19">
-        <v>0.030670260995283</v>
+        <v>0.03547150055752875</v>
       </c>
       <c r="F19">
-        <v>0.9931914365396954</v>
+        <v>1.311740385726028</v>
       </c>
       <c r="G19">
-        <v>1286494.838021669</v>
+        <v>1597858.122341167</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.420942920042486</v>
+        <v>2.093545747855417</v>
       </c>
       <c r="C20">
-        <v>0.9687772963709343</v>
+        <v>1.119098460458962</v>
       </c>
       <c r="D20">
-        <v>2.706114101475237</v>
+        <v>2.46990530925701</v>
       </c>
       <c r="E20">
-        <v>0.05430707405367848</v>
+        <v>0.04299404993923645</v>
       </c>
       <c r="F20">
-        <v>1.219783404907517</v>
+        <v>1.447216588420451</v>
       </c>
       <c r="G20">
-        <v>1276192.733482347</v>
+        <v>1107800.934040143</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.061109775741235</v>
+        <v>2.054905559780127</v>
       </c>
       <c r="C21">
-        <v>1.097097021095503</v>
+        <v>0.9253244984458602</v>
       </c>
       <c r="D21">
-        <v>1.928079045347141</v>
+        <v>1.219249994817684</v>
       </c>
       <c r="E21">
-        <v>0.03653228701588555</v>
+        <v>0.03083783710421702</v>
       </c>
       <c r="F21">
-        <v>1.498752060780905</v>
+        <v>0.9043539688904521</v>
       </c>
       <c r="G21">
-        <v>1311109.792792376</v>
+        <v>1011042.559773981</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.133413039776761</v>
+        <v>2.13752793551192</v>
       </c>
       <c r="C22">
-        <v>0.9414918483037924</v>
+        <v>1.105879698194055</v>
       </c>
       <c r="D22">
-        <v>2.800519578057538</v>
+        <v>2.35420615389117</v>
       </c>
       <c r="E22">
-        <v>0.04742819732028473</v>
+        <v>0.05745631505396355</v>
       </c>
       <c r="F22">
-        <v>1.353818183191697</v>
+        <v>1.364005543312619</v>
       </c>
       <c r="G22">
-        <v>979777.1258838295</v>
+        <v>929942.1125482621</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.047215668807868</v>
+        <v>4.41802166311132</v>
       </c>
       <c r="C23">
-        <v>0.9337035861484266</v>
+        <v>1.193322257894617</v>
       </c>
       <c r="D23">
-        <v>2.079997219348049</v>
+        <v>2.103873040665668</v>
       </c>
       <c r="E23">
-        <v>0.03140135154613907</v>
+        <v>0.03002613284604503</v>
       </c>
       <c r="F23">
-        <v>0.9071144878513544</v>
+        <v>1.428633732025274</v>
       </c>
       <c r="G23">
-        <v>1163201.961627541</v>
+        <v>2025556.925029105</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.76960115921195</v>
+        <v>4.531142268306677</v>
       </c>
       <c r="C24">
-        <v>1.066248333516717</v>
+        <v>1.061083677803919</v>
       </c>
       <c r="D24">
-        <v>1.877833097368114</v>
+        <v>2.183613299459681</v>
       </c>
       <c r="E24">
-        <v>0.05626917015387818</v>
+        <v>0.0525136316606911</v>
       </c>
       <c r="F24">
-        <v>0.9244977117205793</v>
+        <v>1.07922180692364</v>
       </c>
       <c r="G24">
-        <v>1217230.717508218</v>
+        <v>1692479.736933458</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.254247386537319</v>
+        <v>2.901067234817073</v>
       </c>
       <c r="C25">
-        <v>0.9863968825498763</v>
+        <v>0.9830555387507571</v>
       </c>
       <c r="D25">
-        <v>2.400904406202568</v>
+        <v>1.374214154665092</v>
       </c>
       <c r="E25">
-        <v>0.04082425857151763</v>
+        <v>0.04359727956902308</v>
       </c>
       <c r="F25">
-        <v>1.030236580482438</v>
+        <v>1.249106871070946</v>
       </c>
       <c r="G25">
-        <v>1699415.049099161</v>
+        <v>1038581.480811295</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.016383946668516</v>
+        <v>1.849659233218228</v>
       </c>
       <c r="C26">
-        <v>0.9472724388688966</v>
+        <v>1.072979802246544</v>
       </c>
       <c r="D26">
-        <v>1.747510543968281</v>
+        <v>2.547673412635936</v>
       </c>
       <c r="E26">
-        <v>0.04871401441854491</v>
+        <v>0.05063427245269344</v>
       </c>
       <c r="F26">
-        <v>1.02413523922281</v>
+        <v>1.037020071570895</v>
       </c>
       <c r="G26">
-        <v>907350.397229286</v>
+        <v>1113602.270525683</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.38130308863022</v>
+        <v>2.247520329476294</v>
       </c>
       <c r="C27">
-        <v>0.9263883672178305</v>
+        <v>1.102719818904365</v>
       </c>
       <c r="D27">
-        <v>2.603140702904924</v>
+        <v>2.531073798089825</v>
       </c>
       <c r="E27">
-        <v>0.04817349422073607</v>
+        <v>0.05293018124714685</v>
       </c>
       <c r="F27">
-        <v>0.87649777871434</v>
+        <v>0.8771533614181736</v>
       </c>
       <c r="G27">
-        <v>1662110.973432999</v>
+        <v>1314563.924498572</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.80035553270174</v>
+        <v>3.592546665993442</v>
       </c>
       <c r="C28">
-        <v>1.228872022636194</v>
+        <v>0.962750847926834</v>
       </c>
       <c r="D28">
-        <v>1.258292668168552</v>
+        <v>1.024174253879022</v>
       </c>
       <c r="E28">
-        <v>0.03039226989637596</v>
+        <v>0.03943542128499282</v>
       </c>
       <c r="F28">
-        <v>1.117421997466841</v>
+        <v>1.451593183942828</v>
       </c>
       <c r="G28">
-        <v>1198648.281343479</v>
+        <v>1089723.638604035</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.817990554598349</v>
+        <v>4.58691835849446</v>
       </c>
       <c r="C29">
-        <v>1.029891330437031</v>
+        <v>1.132098914329821</v>
       </c>
       <c r="D29">
-        <v>2.523613577824802</v>
+        <v>2.723490053067311</v>
       </c>
       <c r="E29">
-        <v>0.03806167152475839</v>
+        <v>0.04449600667008712</v>
       </c>
       <c r="F29">
-        <v>0.8340130089722213</v>
+        <v>1.143840778390087</v>
       </c>
       <c r="G29">
-        <v>1533601.883106365</v>
+        <v>2011973.971574648</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.491696849753426</v>
+        <v>3.981354320137974</v>
       </c>
       <c r="C30">
-        <v>1.148313847038132</v>
+        <v>0.9549664908829171</v>
       </c>
       <c r="D30">
-        <v>1.255419023509352</v>
+        <v>1.335581475737198</v>
       </c>
       <c r="E30">
-        <v>0.04619139749566134</v>
+        <v>0.0451808324471417</v>
       </c>
       <c r="F30">
-        <v>0.9447915127969884</v>
+        <v>1.471044509435285</v>
       </c>
       <c r="G30">
-        <v>1769791.21481009</v>
+        <v>1141654.858135638</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.101077179230215</v>
+        <v>2.279239749352266</v>
       </c>
       <c r="C31">
-        <v>1.039077462505188</v>
+        <v>0.9461485398406472</v>
       </c>
       <c r="D31">
-        <v>1.059008760606314</v>
+        <v>2.638530603812259</v>
       </c>
       <c r="E31">
-        <v>0.05300750103203498</v>
+        <v>0.03040213473782169</v>
       </c>
       <c r="F31">
-        <v>1.276287874661308</v>
+        <v>1.139013982229268</v>
       </c>
       <c r="G31">
-        <v>729268.263474057</v>
+        <v>1271497.858191716</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.73062024974817</v>
+        <v>4.731066946684139</v>
       </c>
       <c r="C32">
-        <v>1.166185039175712</v>
+        <v>1.19792572713237</v>
       </c>
       <c r="D32">
-        <v>2.107544144857447</v>
+        <v>2.994313563730745</v>
       </c>
       <c r="E32">
-        <v>0.05551001055402982</v>
+        <v>0.05321975617625031</v>
       </c>
       <c r="F32">
-        <v>0.8954535645038617</v>
+        <v>0.9101798912054027</v>
       </c>
       <c r="G32">
-        <v>1688992.497307769</v>
+        <v>2270004.446057279</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.568155227091829</v>
+        <v>3.306845132026079</v>
       </c>
       <c r="C33">
-        <v>1.095287739583788</v>
+        <v>1.165656837071369</v>
       </c>
       <c r="D33">
-        <v>1.811441552490307</v>
+        <v>1.801561127648585</v>
       </c>
       <c r="E33">
-        <v>0.03395194302946315</v>
+        <v>0.04423128025238195</v>
       </c>
       <c r="F33">
-        <v>1.468749994035334</v>
+        <v>1.154228739323362</v>
       </c>
       <c r="G33">
-        <v>1756123.290488931</v>
+        <v>1479377.539295399</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.290573462135668</v>
+        <v>3.056148044170826</v>
       </c>
       <c r="C34">
-        <v>1.139168449715011</v>
+        <v>1.199916274039332</v>
       </c>
       <c r="D34">
-        <v>2.158685746037658</v>
+        <v>1.438716809274286</v>
       </c>
       <c r="E34">
-        <v>0.04582123236410669</v>
+        <v>0.05566050449230596</v>
       </c>
       <c r="F34">
-        <v>1.489525516529812</v>
+        <v>1.063613249502803</v>
       </c>
       <c r="G34">
-        <v>1325256.342169145</v>
+        <v>1271683.076976902</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.220806280643448</v>
+        <v>3.618511148622883</v>
       </c>
       <c r="C35">
-        <v>1.159319624594034</v>
+        <v>1.054891269840723</v>
       </c>
       <c r="D35">
-        <v>2.909631992455213</v>
+        <v>2.418897718254096</v>
       </c>
       <c r="E35">
-        <v>0.0371018137987997</v>
+        <v>0.03236728650593624</v>
       </c>
       <c r="F35">
-        <v>0.8517234230960591</v>
+        <v>1.371318761817462</v>
       </c>
       <c r="G35">
-        <v>1936388.450253166</v>
+        <v>1621195.314579217</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.287140619730671</v>
+        <v>4.193625282088463</v>
       </c>
       <c r="C36">
-        <v>1.013391494419608</v>
+        <v>1.028472826617668</v>
       </c>
       <c r="D36">
-        <v>1.594337342929822</v>
+        <v>1.699025158422107</v>
       </c>
       <c r="E36">
-        <v>0.05587455490526187</v>
+        <v>0.03351824486425677</v>
       </c>
       <c r="F36">
-        <v>0.9688039764316807</v>
+        <v>1.172602104597035</v>
       </c>
       <c r="G36">
-        <v>1463509.965868218</v>
+        <v>1644043.559635768</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.151444548270493</v>
+        <v>1.721268957895187</v>
       </c>
       <c r="C37">
-        <v>1.078253327002809</v>
+        <v>1.17257416716642</v>
       </c>
       <c r="D37">
-        <v>2.285707908627736</v>
+        <v>2.68086834353</v>
       </c>
       <c r="E37">
-        <v>0.03573186822327963</v>
+        <v>0.03627563892575129</v>
       </c>
       <c r="F37">
-        <v>1.085250622267686</v>
+        <v>1.18579506788477</v>
       </c>
       <c r="G37">
-        <v>1565214.577100211</v>
+        <v>1320390.689887952</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.738835635636325</v>
+        <v>4.249773198814121</v>
       </c>
       <c r="C38">
-        <v>1.123829357313552</v>
+        <v>0.9921772078473469</v>
       </c>
       <c r="D38">
-        <v>2.593348249539742</v>
+        <v>1.892098900757173</v>
       </c>
       <c r="E38">
-        <v>0.05198063331333801</v>
+        <v>0.04603987684170184</v>
       </c>
       <c r="F38">
-        <v>0.9324396612526443</v>
+        <v>1.194172087303039</v>
       </c>
       <c r="G38">
-        <v>2042143.344284319</v>
+        <v>1472092.954611427</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.668726006189294</v>
+        <v>3.892757443423061</v>
       </c>
       <c r="C39">
-        <v>1.060505402311632</v>
+        <v>1.147419263303327</v>
       </c>
       <c r="D39">
-        <v>1.698850210936588</v>
+        <v>1.406087715052164</v>
       </c>
       <c r="E39">
-        <v>0.03729005147581847</v>
+        <v>0.04572296060970542</v>
       </c>
       <c r="F39">
-        <v>1.417098247975234</v>
+        <v>0.9703902128052226</v>
       </c>
       <c r="G39">
-        <v>1141024.609094236</v>
+        <v>1617666.229815786</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.834531209331375</v>
+        <v>3.134926270487843</v>
       </c>
       <c r="C40">
-        <v>1.198100210900339</v>
+        <v>1.176011318479627</v>
       </c>
       <c r="D40">
-        <v>1.440449889063706</v>
+        <v>1.055306974923571</v>
       </c>
       <c r="E40">
-        <v>0.04938382901143728</v>
+        <v>0.05535109812058163</v>
       </c>
       <c r="F40">
-        <v>0.9524123904980459</v>
+        <v>1.340500382548418</v>
       </c>
       <c r="G40">
-        <v>1952235.190340634</v>
+        <v>1030876.065935622</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.132997722685499</v>
+        <v>4.356328118528207</v>
       </c>
       <c r="C41">
-        <v>1.106457864394158</v>
+        <v>0.9530811583062568</v>
       </c>
       <c r="D41">
-        <v>1.788110321722564</v>
+        <v>2.579204432033858</v>
       </c>
       <c r="E41">
-        <v>0.04250708003966524</v>
+        <v>0.04201316333628685</v>
       </c>
       <c r="F41">
-        <v>1.3333742024495</v>
+        <v>1.333496134062233</v>
       </c>
       <c r="G41">
-        <v>1291755.088427011</v>
+        <v>1557854.902888326</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.195568743478264</v>
+        <v>3.466028047735356</v>
       </c>
       <c r="C42">
-        <v>1.190652696097558</v>
+        <v>1.252364787968638</v>
       </c>
       <c r="D42">
-        <v>1.516608614366008</v>
+        <v>2.149264139504777</v>
       </c>
       <c r="E42">
-        <v>0.04191152321565007</v>
+        <v>0.03465481233093154</v>
       </c>
       <c r="F42">
-        <v>0.9168600159315972</v>
+        <v>0.9203882176785653</v>
       </c>
       <c r="G42">
-        <v>1872520.800572818</v>
+        <v>1979247.791817229</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.554655242326221</v>
+        <v>3.177626981932449</v>
       </c>
       <c r="C43">
-        <v>1.084143533202065</v>
+        <v>1.222774776243192</v>
       </c>
       <c r="D43">
-        <v>2.393569776872584</v>
+        <v>2.308898792341959</v>
       </c>
       <c r="E43">
-        <v>0.04304738594633688</v>
+        <v>0.02972677240632945</v>
       </c>
       <c r="F43">
-        <v>0.8276205944287389</v>
+        <v>1.054001777834872</v>
       </c>
       <c r="G43">
-        <v>1745946.151856239</v>
+        <v>1887607.120528621</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.773278395268161</v>
+        <v>4.482089846017248</v>
       </c>
       <c r="C44">
-        <v>0.9671278573461632</v>
+        <v>0.9893322740942634</v>
       </c>
       <c r="D44">
-        <v>2.953449101582668</v>
+        <v>1.974632698911407</v>
       </c>
       <c r="E44">
-        <v>0.05045962300987426</v>
+        <v>0.04929497620644001</v>
       </c>
       <c r="F44">
-        <v>0.9882982913842925</v>
+        <v>1.049113819472647</v>
       </c>
       <c r="G44">
-        <v>1820398.729749456</v>
+        <v>1576597.370359191</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.632077203927019</v>
+        <v>2.818250907923277</v>
       </c>
       <c r="C45">
-        <v>1.103523772288666</v>
+        <v>1.117051195848481</v>
       </c>
       <c r="D45">
-        <v>2.916055894395558</v>
+        <v>1.361818655165205</v>
       </c>
       <c r="E45">
-        <v>0.05100703506889538</v>
+        <v>0.03907240324089876</v>
       </c>
       <c r="F45">
-        <v>1.361240415738077</v>
+        <v>1.233949600474635</v>
       </c>
       <c r="G45">
-        <v>1250250.265336674</v>
+        <v>1224117.047360537</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.597885249411784</v>
+        <v>3.33871120750575</v>
       </c>
       <c r="C46">
-        <v>0.9758406158766431</v>
+        <v>0.9976422108815839</v>
       </c>
       <c r="D46">
-        <v>1.422591821100168</v>
+        <v>2.340495457809458</v>
       </c>
       <c r="E46">
-        <v>0.05250471978363164</v>
+        <v>0.04869503265897127</v>
       </c>
       <c r="F46">
-        <v>1.097924369188416</v>
+        <v>1.384841309292581</v>
       </c>
       <c r="G46">
-        <v>1174369.776893207</v>
+        <v>1213772.664948383</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.379714970893659</v>
+        <v>2.83839184016039</v>
       </c>
       <c r="C47">
-        <v>1.12924335006277</v>
+        <v>1.038726834661025</v>
       </c>
       <c r="D47">
-        <v>2.836371096537256</v>
+        <v>1.190087357112561</v>
       </c>
       <c r="E47">
-        <v>0.0480562904451978</v>
+        <v>0.03198101666327508</v>
       </c>
       <c r="F47">
-        <v>1.347052233643463</v>
+        <v>0.9889216938631107</v>
       </c>
       <c r="G47">
-        <v>1243466.398016586</v>
+        <v>1288161.614274724</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.331741766683668</v>
+        <v>4.665186425999029</v>
       </c>
       <c r="C48">
-        <v>1.119885881393469</v>
+        <v>1.078271324480589</v>
       </c>
       <c r="D48">
-        <v>1.619112020458461</v>
+        <v>1.760153083565243</v>
       </c>
       <c r="E48">
-        <v>0.05791914814436004</v>
+        <v>0.04825891283916355</v>
       </c>
       <c r="F48">
-        <v>1.150665615813236</v>
+        <v>0.8113285749354929</v>
       </c>
       <c r="G48">
-        <v>1493598.142228161</v>
+        <v>1870218.26634482</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.255420676281005</v>
+        <v>1.71146313892447</v>
       </c>
       <c r="C49">
-        <v>1.210805302184987</v>
+        <v>1.068438194281631</v>
       </c>
       <c r="D49">
-        <v>1.482710411804122</v>
+        <v>2.128531385121558</v>
       </c>
       <c r="E49">
-        <v>0.03620573758674633</v>
+        <v>0.0375387944613355</v>
       </c>
       <c r="F49">
-        <v>1.438283186616786</v>
+        <v>0.8024135324218938</v>
       </c>
       <c r="G49">
-        <v>1145026.268547846</v>
+        <v>1233715.689910632</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.428634199046581</v>
+        <v>1.930530147379927</v>
       </c>
       <c r="C50">
-        <v>1.214901097178882</v>
+        <v>1.142701432288978</v>
       </c>
       <c r="D50">
-        <v>2.454129204284922</v>
+        <v>2.285037857308858</v>
       </c>
       <c r="E50">
-        <v>0.02907270904617335</v>
+        <v>0.03503510590520223</v>
       </c>
       <c r="F50">
-        <v>1.24146064407009</v>
+        <v>1.434580981184417</v>
       </c>
       <c r="G50">
-        <v>1925293.82659511</v>
+        <v>1178399.341457327</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.654301527312796</v>
+        <v>2.480012878733826</v>
       </c>
       <c r="C51">
-        <v>1.188060290653849</v>
+        <v>1.236319368979982</v>
       </c>
       <c r="D51">
-        <v>1.718910534351078</v>
+        <v>1.26086930377883</v>
       </c>
       <c r="E51">
-        <v>0.05010092258057504</v>
+        <v>0.05689410819928432</v>
       </c>
       <c r="F51">
-        <v>1.252829902208762</v>
+        <v>1.266496473021985</v>
       </c>
       <c r="G51">
-        <v>1750001.938298765</v>
+        <v>967700.1898362173</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.600804367608204</v>
+        <v>2.769820401806719</v>
       </c>
       <c r="C52">
-        <v>1.242275468120234</v>
+        <v>1.20811891636033</v>
       </c>
       <c r="D52">
-        <v>2.509986631585902</v>
+        <v>2.778027120209589</v>
       </c>
       <c r="E52">
-        <v>0.04342828986668831</v>
+        <v>0.03297448608239417</v>
       </c>
       <c r="F52">
-        <v>1.475878233327742</v>
+        <v>1.355072097540781</v>
       </c>
       <c r="G52">
-        <v>1987579.966539334</v>
+        <v>1675836.874819824</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.858671492517054</v>
+        <v>2.576632422137724</v>
       </c>
       <c r="C53">
-        <v>1.153113878489348</v>
+        <v>1.22366272362479</v>
       </c>
       <c r="D53">
-        <v>1.018446572568863</v>
+        <v>2.246021103992704</v>
       </c>
       <c r="E53">
-        <v>0.04498207710245834</v>
+        <v>0.03145011594446195</v>
       </c>
       <c r="F53">
-        <v>1.422803955971603</v>
+        <v>1.485119522705963</v>
       </c>
       <c r="G53">
-        <v>1303341.420857445</v>
+        <v>1488861.791441847</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.827995717568832</v>
+        <v>1.851549891285043</v>
       </c>
       <c r="C54">
-        <v>0.9570368099558207</v>
+        <v>1.002476152112013</v>
       </c>
       <c r="D54">
-        <v>2.67169769665884</v>
+        <v>2.059567279450321</v>
       </c>
       <c r="E54">
-        <v>0.03544129903068555</v>
+        <v>0.04180707262924357</v>
       </c>
       <c r="F54">
-        <v>1.057636785600852</v>
+        <v>0.8844445170001837</v>
       </c>
       <c r="G54">
-        <v>1155814.31822314</v>
+        <v>1107033.602013301</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.82935505787626</v>
+        <v>2.32183229461132</v>
       </c>
       <c r="C55">
-        <v>1.034276418629038</v>
+        <v>1.215131346934886</v>
       </c>
       <c r="D55">
-        <v>1.556079548621319</v>
+        <v>1.070887146321291</v>
       </c>
       <c r="E55">
-        <v>0.04901693171001052</v>
+        <v>0.05192594101708531</v>
       </c>
       <c r="F55">
-        <v>1.445660225250673</v>
+        <v>1.398717769394597</v>
       </c>
       <c r="G55">
-        <v>954021.8451414967</v>
+        <v>865189.0932270843</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.354085669636514</v>
+        <v>2.217661835368111</v>
       </c>
       <c r="C56">
-        <v>1.112622641924296</v>
+        <v>1.251076679581605</v>
       </c>
       <c r="D56">
-        <v>2.142241808209639</v>
+        <v>1.780109469263923</v>
       </c>
       <c r="E56">
-        <v>0.03885048838138622</v>
+        <v>0.03432483122708588</v>
       </c>
       <c r="F56">
-        <v>1.452089782731571</v>
+        <v>0.8251509176175188</v>
       </c>
       <c r="G56">
-        <v>1436585.858270177</v>
+        <v>1542738.368293105</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.898034269660842</v>
+        <v>4.859191092938419</v>
       </c>
       <c r="C57">
-        <v>1.169051835308624</v>
+        <v>0.9812985272069477</v>
       </c>
       <c r="D57">
-        <v>1.371885882040512</v>
+        <v>1.112498863908888</v>
       </c>
       <c r="E57">
-        <v>0.0327512512808886</v>
+        <v>0.05399307103746277</v>
       </c>
       <c r="F57">
-        <v>1.232358353794315</v>
+        <v>0.9912698166932719</v>
       </c>
       <c r="G57">
-        <v>1116699.204768538</v>
+        <v>1474560.894138836</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.635039502481714</v>
+        <v>2.645591212340558</v>
       </c>
       <c r="C58">
-        <v>0.9936304111266426</v>
+        <v>1.083424288319629</v>
       </c>
       <c r="D58">
-        <v>2.194616862430823</v>
+        <v>2.846903123894771</v>
       </c>
       <c r="E58">
-        <v>0.0565394385883625</v>
+        <v>0.05793251097822641</v>
       </c>
       <c r="F58">
-        <v>1.402182102549083</v>
+        <v>0.9309393626175422</v>
       </c>
       <c r="G58">
-        <v>1145962.010870575</v>
+        <v>1379934.57134866</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.978072375875178</v>
+        <v>3.801352295430588</v>
       </c>
       <c r="C59">
-        <v>1.114488989474328</v>
+        <v>1.09541012437357</v>
       </c>
       <c r="D59">
-        <v>2.7974478645063</v>
+        <v>1.671392810530187</v>
       </c>
       <c r="E59">
-        <v>0.03000064813051049</v>
+        <v>0.03589096651702519</v>
       </c>
       <c r="F59">
-        <v>0.8008884271882099</v>
+        <v>1.303219520323775</v>
       </c>
       <c r="G59">
-        <v>1575259.556399066</v>
+        <v>1547337.117989573</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.012797988203006</v>
+        <v>1.949063542463294</v>
       </c>
       <c r="C60">
-        <v>1.225802809886084</v>
+        <v>0.935752322914118</v>
       </c>
       <c r="D60">
-        <v>2.361639732490926</v>
+        <v>1.928065691985658</v>
       </c>
       <c r="E60">
-        <v>0.04146065093200856</v>
+        <v>0.04009136880773041</v>
       </c>
       <c r="F60">
-        <v>1.182374391610373</v>
+        <v>0.9477060728475326</v>
       </c>
       <c r="G60">
-        <v>1621930.755155698</v>
+        <v>1022927.364351449</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.04869863486582</v>
+        <v>2.409912285287442</v>
       </c>
       <c r="C61">
-        <v>0.9975948382442218</v>
+        <v>1.113867917052008</v>
       </c>
       <c r="D61">
-        <v>1.635479059000895</v>
+        <v>2.622382619283762</v>
       </c>
       <c r="E61">
-        <v>0.03323154690749273</v>
+        <v>0.04793453107621572</v>
       </c>
       <c r="F61">
-        <v>1.10073670080173</v>
+        <v>1.274010828670657</v>
       </c>
       <c r="G61">
-        <v>1574530.207513191</v>
+        <v>1229335.411905457</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.502920621044511</v>
+        <v>3.663784648690191</v>
       </c>
       <c r="C62">
-        <v>1.218826378478303</v>
+        <v>1.065000980522676</v>
       </c>
       <c r="D62">
-        <v>2.870291354916382</v>
+        <v>1.546942119803977</v>
       </c>
       <c r="E62">
-        <v>0.04675194744081425</v>
+        <v>0.05100348469443132</v>
       </c>
       <c r="F62">
-        <v>1.144119871246397</v>
+        <v>0.8906157625603434</v>
       </c>
       <c r="G62">
-        <v>1520129.049393032</v>
+        <v>1456952.674858916</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.676100483006197</v>
+        <v>4.720592048654318</v>
       </c>
       <c r="C63">
-        <v>1.137725715884886</v>
+        <v>1.243317517941414</v>
       </c>
       <c r="D63">
-        <v>1.950870410165161</v>
+        <v>2.698996322868441</v>
       </c>
       <c r="E63">
-        <v>0.03223323722986062</v>
+        <v>0.05149957590716533</v>
       </c>
       <c r="F63">
-        <v>1.3882396274052</v>
+        <v>1.015269563611261</v>
       </c>
       <c r="G63">
-        <v>1096816.400738616</v>
+        <v>2228107.895753783</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.824006948081414</v>
+        <v>3.775710988317525</v>
       </c>
       <c r="C64">
-        <v>1.200819257864985</v>
+        <v>0.9674675795757742</v>
       </c>
       <c r="D64">
-        <v>1.328542123524133</v>
+        <v>1.739744689281681</v>
       </c>
       <c r="E64">
-        <v>0.05683302773686395</v>
+        <v>0.04037164261558668</v>
       </c>
       <c r="F64">
-        <v>1.319922311380492</v>
+        <v>1.203438624605439</v>
       </c>
       <c r="G64">
-        <v>1294673.063980393</v>
+        <v>1354754.884986606</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.89638487013735</v>
+        <v>3.012305784533695</v>
       </c>
       <c r="C65">
-        <v>1.072046566298428</v>
+        <v>1.241436712610827</v>
       </c>
       <c r="D65">
-        <v>1.366202975837602</v>
+        <v>1.854402592715578</v>
       </c>
       <c r="E65">
-        <v>0.04519141862420806</v>
+        <v>0.04069438474748366</v>
       </c>
       <c r="F65">
-        <v>1.260402346472725</v>
+        <v>1.223378301397134</v>
       </c>
       <c r="G65">
-        <v>855431.2347588292</v>
+        <v>1513559.711622727</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.952992151375326</v>
+        <v>2.400408646861143</v>
       </c>
       <c r="C66">
-        <v>1.086830259984744</v>
+        <v>1.022829627684716</v>
       </c>
       <c r="D66">
-        <v>2.028027250045704</v>
+        <v>1.585727321726316</v>
       </c>
       <c r="E66">
-        <v>0.0381612406540199</v>
+        <v>0.05474286655938541</v>
       </c>
       <c r="F66">
-        <v>1.060973629870073</v>
+        <v>1.406870740880838</v>
       </c>
       <c r="G66">
-        <v>1449508.571735492</v>
+        <v>797825.4092136563</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.911421546417297</v>
+        <v>3.852786334759581</v>
       </c>
       <c r="C67">
-        <v>1.004663582949201</v>
+        <v>1.029464854436757</v>
       </c>
       <c r="D67">
-        <v>1.844999249414282</v>
+        <v>1.133351033166371</v>
       </c>
       <c r="E67">
-        <v>0.03460260437867807</v>
+        <v>0.05672424409656215</v>
       </c>
       <c r="F67">
-        <v>1.198568759383251</v>
+        <v>1.00703535364429</v>
       </c>
       <c r="G67">
-        <v>1538148.672397148</v>
+        <v>1252903.649146766</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.404320851367068</v>
+        <v>3.532767890824707</v>
       </c>
       <c r="C68">
-        <v>1.145743859845256</v>
+        <v>1.008060290103707</v>
       </c>
       <c r="D68">
-        <v>1.165960257122835</v>
+        <v>1.950561659770595</v>
       </c>
       <c r="E68">
-        <v>0.03918626355987422</v>
+        <v>0.04105618805819203</v>
       </c>
       <c r="F68">
-        <v>1.396633511697789</v>
+        <v>1.466552949922742</v>
       </c>
       <c r="G68">
-        <v>1586791.73370437</v>
+        <v>1271488.776998939</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.941344346341052</v>
+        <v>1.995374412279001</v>
       </c>
       <c r="C69">
-        <v>1.180347194787354</v>
+        <v>1.181954860755098</v>
       </c>
       <c r="D69">
-        <v>2.763703717231385</v>
+        <v>1.307542505303744</v>
       </c>
       <c r="E69">
-        <v>0.04424934373589089</v>
+        <v>0.04722992858142901</v>
       </c>
       <c r="F69">
-        <v>1.171046831439571</v>
+        <v>1.281167505520025</v>
       </c>
       <c r="G69">
-        <v>1898309.846539263</v>
+        <v>921232.4103903241</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.701799720077664</v>
+        <v>1.641732678598941</v>
       </c>
       <c r="C70">
-        <v>1.018855923601865</v>
+        <v>0.9743967491951422</v>
       </c>
       <c r="D70">
-        <v>2.554095545595692</v>
+        <v>2.864647852627791</v>
       </c>
       <c r="E70">
-        <v>0.03186341110799527</v>
+        <v>0.05002619365866592</v>
       </c>
       <c r="F70">
-        <v>1.222643633438643</v>
+        <v>1.328228960643833</v>
       </c>
       <c r="G70">
-        <v>1674703.034312997</v>
+        <v>893630.5371226325</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.304344059808983</v>
+        <v>2.536295760438933</v>
       </c>
       <c r="C71">
-        <v>0.958603550822265</v>
+        <v>0.9697878439313723</v>
       </c>
       <c r="D71">
-        <v>2.290358392759456</v>
+        <v>1.616206721469067</v>
       </c>
       <c r="E71">
-        <v>0.0413342049239479</v>
+        <v>0.03384326482156611</v>
       </c>
       <c r="F71">
-        <v>1.120598132207643</v>
+        <v>1.085323117087613</v>
       </c>
       <c r="G71">
-        <v>1114057.023772556</v>
+        <v>1155820.165038281</v>
       </c>
     </row>
   </sheetData>
